--- a/test/test_1.xlsx
+++ b/test/test_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\QQ831KU\spend_analytics_tracker\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C24C559-A5DD-4CCB-9D50-67EF0013B4B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{521A0B7D-0788-4FEE-B887-3E8603F39D06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="0" windowWidth="9600" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10240" yWindow="2220" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Dept</t>
   </si>
@@ -42,12 +42,6 @@
     <t>Account</t>
   </si>
   <si>
-    <t>EY</t>
-  </si>
-  <si>
-    <t>KPMG</t>
-  </si>
-  <si>
     <t>FISERV</t>
   </si>
   <si>
@@ -82,6 +76,15 @@
   </si>
   <si>
     <t>d</t>
+  </si>
+  <si>
+    <t>EY LLC</t>
+  </si>
+  <si>
+    <t>KPMG INC.</t>
+  </si>
+  <si>
+    <t>EY LLC.</t>
   </si>
 </sst>
 </file>
@@ -402,7 +405,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -433,70 +436,70 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B2">
         <v>500</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B3">
         <v>200</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B4">
         <v>100</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>200</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
